--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3589.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3589.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.36335097267391</v>
+        <v>1.28244960308075</v>
       </c>
       <c r="B1">
-        <v>3.368527617997779</v>
+        <v>4.815610408782959</v>
       </c>
       <c r="C1">
-        <v>4.973974312324855</v>
+        <v>3.266622066497803</v>
       </c>
       <c r="D1">
-        <v>1.541210427251647</v>
+        <v>1.722324967384338</v>
       </c>
       <c r="E1">
-        <v>0.9509790432318722</v>
+        <v>1.290124416351318</v>
       </c>
     </row>
   </sheetData>
